--- a/data/trans_dic/P1416-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1416-Estudios-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.03838277255203208</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.08350848401178999</v>
+        <v>0.08350848401179001</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03934315926530482</v>
+        <v>0.04034736141782664</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02484971215996787</v>
+        <v>0.02504576124792638</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01450434945140709</v>
+        <v>0.01391829918757397</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03888168413858306</v>
+        <v>0.03895077603921559</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.06165823019338931</v>
+        <v>0.06147542166915277</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03858294592324559</v>
+        <v>0.03961725527343766</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03668882783403211</v>
+        <v>0.03755640526874084</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.08528876824730969</v>
+        <v>0.08692729866011309</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05577984325352423</v>
+        <v>0.0556924112280241</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.03622351367640027</v>
+        <v>0.03672967069759242</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02984629220286598</v>
+        <v>0.03069681051112044</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.07289613659706791</v>
+        <v>0.07163031582738492</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06742448247580421</v>
+        <v>0.06964503822543912</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05102420420510762</v>
+        <v>0.05204004633926436</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03628832415208719</v>
+        <v>0.03483472821231171</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.07744503016672064</v>
+        <v>0.07656345797642408</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.09027491828500606</v>
+        <v>0.08922436392664472</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.06274761057950591</v>
+        <v>0.06375488360946108</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06498453036533282</v>
+        <v>0.06804819631539888</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1195325579071105</v>
+        <v>0.1192236061722691</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.07712792916091812</v>
+        <v>0.07556209329256895</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.05367618211763109</v>
+        <v>0.0540394702689423</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04849957732571142</v>
+        <v>0.04875192563751048</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.09681378256221053</v>
+        <v>0.09654226353246503</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05667952264039813</v>
+        <v>0.05703907614180998</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04582463575769573</v>
+        <v>0.04612112323735371</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04061985089950329</v>
+        <v>0.04063266778585028</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0965250039604393</v>
+        <v>0.09627755570469743</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0924824092620295</v>
+        <v>0.09159611364366924</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.07136856591856099</v>
+        <v>0.0708638749030393</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.07449323338077524</v>
+        <v>0.07417617921393431</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1046274248813303</v>
+        <v>0.1054093054340045</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.07746581965537885</v>
+        <v>0.07669676048081052</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.06058185999067379</v>
+        <v>0.06004648416202422</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.06049320705394888</v>
+        <v>0.06019630147908805</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1047030255777955</v>
+        <v>0.1056595048109921</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08286727550047093</v>
+        <v>0.08315707802634319</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06664345579014387</v>
+        <v>0.06750826006902022</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06025587380410977</v>
+        <v>0.0601024503693327</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.127480398137868</v>
+        <v>0.1271241170343084</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1231045709242142</v>
+        <v>0.122037095866527</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.09730520876864004</v>
+        <v>0.09850628814763694</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1001759769818057</v>
+        <v>0.100066411723819</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.130556562891022</v>
+        <v>0.130660291951282</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0974587989413241</v>
+        <v>0.09743665105835739</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.07718030318890949</v>
+        <v>0.07728644981064349</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.0761536627072381</v>
+        <v>0.07550622134134831</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1248805599777868</v>
+        <v>0.1260119587308717</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.08583077610735544</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.08391312643938566</v>
+        <v>0.08391312643938564</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1169399618381979</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06442309668069071</v>
+        <v>0.06662402637741474</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04500212555371302</v>
+        <v>0.04689161049272904</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06237455388960937</v>
+        <v>0.06296640968251763</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.06348804377146924</v>
+        <v>0.06360510190271441</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.08586029391169629</v>
+        <v>0.08890102200517283</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07302783166655673</v>
+        <v>0.07322677309763369</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.08073917799863707</v>
+        <v>0.08321947428943101</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1228875109187792</v>
+        <v>0.1239438950620015</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.08308651104014381</v>
+        <v>0.08282497493467172</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.06399390854761988</v>
+        <v>0.06405635790772565</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.07968466840228623</v>
+        <v>0.07972830414986413</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.09948166596714073</v>
+        <v>0.1002581255675512</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1170285934330584</v>
+        <v>0.1160735469325766</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09442750548580561</v>
+        <v>0.09821747923447613</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1115542572491491</v>
+        <v>0.115207746853173</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1098437507787729</v>
+        <v>0.1086571156085847</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1516217384416482</v>
+        <v>0.1519866194036647</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1317075874496889</v>
+        <v>0.1304356968888436</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1371449216488627</v>
+        <v>0.1410540616324295</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1711913690343104</v>
+        <v>0.1732101606191214</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1212665220105231</v>
+        <v>0.1215793958849771</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1034121453426673</v>
+        <v>0.1009381567421855</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.117090233394013</v>
+        <v>0.1163385791178789</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.131574660554458</v>
+        <v>0.1322198423364441</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05802178607102218</v>
+        <v>0.05908915541102524</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04356405057362428</v>
+        <v>0.0442132300423043</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04258408488508113</v>
+        <v>0.04254000791156908</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.08561571509419769</v>
+        <v>0.08614832286707082</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.08626816254183399</v>
+        <v>0.08563969490159655</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06444793313324639</v>
+        <v>0.06470976083233014</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.07072639146823767</v>
+        <v>0.0707927094124193</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1107886076348852</v>
+        <v>0.1110993650137813</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07494144170394948</v>
+        <v>0.07531357902371294</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.05649749113578191</v>
+        <v>0.05716420250226669</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.05975339434764282</v>
+        <v>0.05922336046399823</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1019840808485143</v>
+        <v>0.1014963143668691</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07571279204719857</v>
+        <v>0.07613413014860665</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05974859628390832</v>
+        <v>0.06009454157961678</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05706240695857255</v>
+        <v>0.05743298725323592</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1090094865202706</v>
+        <v>0.1086397751120129</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.105856501192828</v>
+        <v>0.1062559475636729</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.082186710556794</v>
+        <v>0.08281305121988182</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.08954751869529755</v>
+        <v>0.0897452987422689</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1297858425037182</v>
+        <v>0.1302226176574795</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.08815567872117933</v>
+        <v>0.08882946057112293</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.06846951406159534</v>
+        <v>0.06906044623373155</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.07156220380267901</v>
+        <v>0.07114525366874144</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1162873053064397</v>
+        <v>0.1160727174148681</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>40591</v>
+        <v>41627</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>24220</v>
+        <v>24411</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>10941</v>
+        <v>10499</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>22456</v>
+        <v>22496</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>81088</v>
+        <v>80847</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>51616</v>
+        <v>53000</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>36493</v>
+        <v>37356</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>69932</v>
+        <v>71276</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>130906</v>
+        <v>130701</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>83765</v>
+        <v>84935</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>52201</v>
+        <v>53689</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>101872</v>
+        <v>100103</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>69563</v>
+        <v>71854</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>49730</v>
+        <v>50720</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>27374</v>
+        <v>26277</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>44728</v>
+        <v>44219</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>118722</v>
+        <v>117340</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>83944</v>
+        <v>85291</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>64638</v>
+        <v>67685</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>98011</v>
+        <v>97757</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>181007</v>
+        <v>177332</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>124123</v>
+        <v>124963</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>84826</v>
+        <v>85267</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>135296</v>
+        <v>134917</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>95982</v>
+        <v>96591</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>89951</v>
+        <v>90533</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>84342</v>
+        <v>84369</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>214838</v>
+        <v>214287</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>146832</v>
+        <v>145425</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>125361</v>
+        <v>124474</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>148115</v>
+        <v>147484</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>225748</v>
+        <v>227435</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>254172</v>
+        <v>251649</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>225332</v>
+        <v>223341</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>245886</v>
+        <v>244679</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>458951</v>
+        <v>463144</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>140329</v>
+        <v>140819</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>130817</v>
+        <v>132514</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>125114</v>
+        <v>124796</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>283736</v>
+        <v>282943</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>195450</v>
+        <v>193755</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>170919</v>
+        <v>173029</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>199180</v>
+        <v>198962</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>281693</v>
+        <v>281917</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>319771</v>
+        <v>319698</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>287069</v>
+        <v>287464</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>309541</v>
+        <v>306909</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>547396</v>
+        <v>552356</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>35523</v>
+        <v>36737</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>21654</v>
+        <v>22563</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>34112</v>
+        <v>34435</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>45177</v>
+        <v>45261</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>40905</v>
+        <v>42354</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>33493</v>
+        <v>33584</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>44337</v>
+        <v>45699</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>90124</v>
+        <v>90899</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>85398</v>
+        <v>85129</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>60142</v>
+        <v>60201</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>87337</v>
+        <v>87384</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>143749</v>
+        <v>144870</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>64531</v>
+        <v>64004</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>45437</v>
+        <v>47260</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>61007</v>
+        <v>63006</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>78163</v>
+        <v>77319</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>72234</v>
+        <v>72408</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>60405</v>
+        <v>59822</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>75312</v>
+        <v>77458</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>125550</v>
+        <v>127030</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>124640</v>
+        <v>124962</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>97188</v>
+        <v>94863</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>128334</v>
+        <v>127510</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>190122</v>
+        <v>191054</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>190111</v>
+        <v>193608</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>148935</v>
+        <v>151154</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>143833</v>
+        <v>143684</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>300927</v>
+        <v>302799</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>291517</v>
+        <v>289393</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>228981</v>
+        <v>229911</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>249813</v>
+        <v>250047</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>411133</v>
+        <v>412287</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>498791</v>
+        <v>501268</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>393884</v>
+        <v>398533</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>412879</v>
+        <v>409217</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>736919</v>
+        <v>733395</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>248076</v>
+        <v>249457</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>204266</v>
+        <v>205449</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>192735</v>
+        <v>193987</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>383152</v>
+        <v>381853</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>357710</v>
+        <v>359060</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>292006</v>
+        <v>294231</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>316291</v>
+        <v>316989</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>481632</v>
+        <v>483252</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>586741</v>
+        <v>591226</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>477350</v>
+        <v>481470</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>494475</v>
+        <v>491594</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>840272</v>
+        <v>838721</v>
       </c>
     </row>
     <row r="20">
